--- a/perforance_monitoring/tests.xlsx
+++ b/perforance_monitoring/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylve\OneDrive\Bureau\Telemetry-for-the-Formula-Student\perforance_monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77EEBB1-FDA3-4D27-877B-60530DE38FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6528F37-BDBA-41DF-9C40-1DAB10B7E625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Base system</t>
   </si>
@@ -36,9 +36,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>LogFrameRate</t>
-  </si>
-  <si>
     <t>Wifi</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>System Parameters</t>
   </si>
   <si>
-    <t>Canbus message rate:</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -66,16 +60,28 @@
     <t>enabled</t>
   </si>
   <si>
-    <t>System works without failure :</t>
-  </si>
-  <si>
-    <t>Log recording and monitoring system splitted</t>
-  </si>
-  <si>
-    <t>Can buffer overflow</t>
-  </si>
-  <si>
-    <t>Ignored canbus messages rate :</t>
+    <t>Log recording and monitoring system splitted into two separated devices</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Test time [min]</t>
+  </si>
+  <si>
+    <t>System works without failure</t>
+  </si>
+  <si>
+    <t>LogFrameRate [recording/sec]</t>
+  </si>
+  <si>
+    <t>Failure : CAN buffer overflow after[min]</t>
+  </si>
+  <si>
+    <t>CANBUS message rate [message/sec]</t>
+  </si>
+  <si>
+    <t>Ignored CANBUS messages rate [message/sec]</t>
   </si>
 </sst>
 </file>
@@ -119,12 +125,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,74 +416,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="1" customWidth="1"/>
     <col min="5" max="9" width="14.42578125" style="1" customWidth="1"/>
     <col min="10" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
       </c>
       <c r="C6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -485,43 +512,87 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>200</v>
       </c>
       <c r="C8" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -529,9 +600,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>

--- a/perforance_monitoring/tests.xlsx
+++ b/perforance_monitoring/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylve\OneDrive\Bureau\Telemetry-for-the-Formula-Student\perforance_monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6528F37-BDBA-41DF-9C40-1DAB10B7E625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889CA6B9-120E-41B1-BDF5-0104CCBC7762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Base system</t>
   </si>
@@ -125,15 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +414,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +532,9 @@
       <c r="E8" s="1">
         <v>200</v>
       </c>
+      <c r="F8" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -552,39 +552,48 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1">
-        <v>30</v>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/perforance_monitoring/tests.xlsx
+++ b/perforance_monitoring/tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylve\OneDrive\Bureau\Telemetry-for-the-Formula-Student\perforance_monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889CA6B9-120E-41B1-BDF5-0104CCBC7762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5CA01-8F25-457C-BA94-3E0BC5ACBDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
   <si>
     <t>Base system</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Ignored CANBUS messages rate [message/sec]</t>
+  </si>
+  <si>
+    <t>Sync at every frame</t>
+  </si>
+  <si>
+    <t>2 single overflows</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,17 +432,17 @@
     <col min="10" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -455,8 +461,17 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -475,8 +490,17 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -495,8 +519,17 @@
       <c r="F6" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -515,8 +548,17 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>600</v>
+      </c>
+      <c r="J7" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -535,86 +577,197 @@
       <c r="F8" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G8" s="1">
+        <v>300</v>
+      </c>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+      <c r="J8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>30</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>30</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>30</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="1">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/perforance_monitoring/tests.xlsx
+++ b/perforance_monitoring/tests.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylve\OneDrive\Bureau\Telemetry-for-the-Formula-Student\perforance_monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5CA01-8F25-457C-BA94-3E0BC5ACBDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B6810D-9DBB-4C4C-8E31-D1010D5A6C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base system" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
   <si>
     <t>Base system</t>
   </si>
@@ -88,6 +99,51 @@
   </si>
   <si>
     <t>2 single overflows</t>
+  </si>
+  <si>
+    <t>no sync</t>
+  </si>
+  <si>
+    <t>actual test</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>Tire</t>
+  </si>
+  <si>
+    <t>LVS</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>F[message/second]</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Tork</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Speedtest</t>
+  </si>
+  <si>
+    <t>single overflow</t>
   </si>
 </sst>
 </file>
@@ -131,12 +187,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,32 +476,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.140625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
     <col min="5" max="9" width="14.42578125" style="1" customWidth="1"/>
-    <col min="10" max="13" width="14.42578125" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -470,8 +533,17 @@
       <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -499,8 +571,17 @@
       <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -528,8 +609,17 @@
       <c r="J6" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -557,8 +647,17 @@
       <c r="J7" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>600</v>
+      </c>
+      <c r="M7" s="1">
+        <v>600</v>
+      </c>
+      <c r="N7" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -586,8 +685,17 @@
       <c r="J8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <v>200</v>
+      </c>
+      <c r="N8" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -615,8 +723,17 @@
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -644,8 +761,17 @@
       <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -668,8 +794,17 @@
         <v>12</v>
       </c>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>80</v>
+      </c>
+      <c r="M12" s="1">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -697,17 +832,23 @@
       <c r="J13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -735,8 +876,17 @@
       <c r="J16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -764,10 +914,152 @@
       <c r="J17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>20</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1">
+        <f>1/B27*1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C34" si="0">1/B28*1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
+        <f>SUM(C27:C34)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C38" s="1">
+        <f>1000/B38</f>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
